--- a/SimulationStudyData/Model2/SimCase9_zsim_SimRun4.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_zsim_SimRun4.xlsx
@@ -353,27 +353,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -398,7 +398,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -418,7 +418,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -428,7 +428,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -448,17 +448,17 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -473,7 +473,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -498,7 +498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -508,7 +508,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -523,7 +523,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -543,7 +543,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -568,7 +568,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -578,12 +578,12 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -593,7 +593,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -603,7 +603,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -613,17 +613,17 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -638,7 +638,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -648,12 +648,12 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -673,12 +673,12 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -693,12 +693,12 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -708,12 +708,12 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -723,12 +723,12 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -743,17 +743,17 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -778,7 +778,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -788,7 +788,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -798,7 +798,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -813,27 +813,27 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -858,7 +858,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -868,7 +868,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -878,12 +878,12 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -893,27 +893,27 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -933,17 +933,17 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -953,12 +953,12 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -978,22 +978,22 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -1003,7 +1003,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -1068,12 +1068,12 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1098,7 +1098,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1113,7 +1113,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1153,7 +1153,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -1178,22 +1178,22 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -1218,7 +1218,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -1238,7 +1238,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -1263,7 +1263,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -1278,7 +1278,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -1318,7 +1318,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -1338,17 +1338,17 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
